--- a/medicine/Mort/Cimetière_de_Préville/Cimetière_de_Préville.xlsx
+++ b/medicine/Mort/Cimetière_de_Préville/Cimetière_de_Préville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Pr%C3%A9ville</t>
+          <t>Cimetière_de_Préville</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Préville est l'un des deux cimetières de Nancy, avec le cimetière du Sud.
 Ce cimetière, situé au centre-ouest de Nancy, entre le quartier de la gare, le quartier de Boudonville et le quartier de la Commanderie, est encadré par la rue de la Côte au nord, la rue Raymond-Poincaré et l'avenue de Boufflers au sud, la rue Notre-Dame-des-Anges à l'est, et la rue Messier à l'ouest.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Pr%C3%A9ville</t>
+          <t>Cimetière_de_Préville</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Cimetière chrétien</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il abrite de nombreuses tombes monumentales aux noms prestigieux des membres fondateurs de l'École de Nancy et de célèbres artistes lorrains tels :
 la famille Majorelle avec l'ébéniste Louis Majorelle et son fils, le peintre Jacques Majorelle ;
@@ -546,8 +560,43 @@
 			Famille Blosse.
 			Famille Chauwin.
 			Famille Étienne.
-Commémoration
-Certaines personnalités « bienfaitrices de la ville » sont regroupées en un cercle à l'entrée de la rue Bassompierre : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Préville</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Pr%C3%A9ville</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Cimetière chrétien</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Commémoration</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines personnalités « bienfaitrices de la ville » sont regroupées en un cercle à l'entrée de la rue Bassompierre : 
 Henri Braconnot (1780-1855) botaniste et chimiste ;
 Virginie Mauvais, institutrice ;
 Magdeleine Didion ;
@@ -560,38 +609,75 @@
 			Drouot.
 			Henri Braconnot.
 			Magdeleine Didion.
-Cimetière allemand de la guerre de 1870
-Dans le haut du cimetière on trouve un cimetière allemand de la guerre de 1870. Certains soldats de l'armée prussienne sont restés à Nancy de 1870 à 1873 pour vérifier le paiement des dommages de guerre. Le cimetière comprend également une vaste fosse commune pour les corps des soldats des deux camps morts dans les hôpitaux de la ville.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Préville</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Pr%C3%A9ville</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Cimetière chrétien</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cimetière allemand de la guerre de 1870</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le haut du cimetière on trouve un cimetière allemand de la guerre de 1870. Certains soldats de l'armée prussienne sont restés à Nancy de 1870 à 1873 pour vérifier le paiement des dommages de guerre. Le cimetière comprend également une vaste fosse commune pour les corps des soldats des deux camps morts dans les hôpitaux de la ville.
 	Le cimetière allemand de la guerre de 1870
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Cimeti%C3%A8re_de_Pr%C3%A9ville</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Préville</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Mort/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Pr%C3%A9ville</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Cimetière israélite de Nancy</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La section israélite du cimetière de Préville est située au no 2 avenue de Boufflers.
 	Le cimetière israélite
